--- a/Business Case.xlsx
+++ b/Business Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uckert\Downloads\RpMMA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30E44C-833D-4AA8-B958-FF152DAC1097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9B101-E1A2-4F9A-B1FC-324C2D534974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="0" windowWidth="20625" windowHeight="20985" activeTab="1" xr2:uid="{DDF71E8C-5C51-4704-B358-15AF6D31F82B}"/>
+    <workbookView xWindow="17880" yWindow="0" windowWidth="20625" windowHeight="20985" activeTab="4" xr2:uid="{DDF71E8C-5C51-4704-B358-15AF6D31F82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -18,33 +18,18 @@
     <sheet name="Cost2" sheetId="6" r:id="rId3"/>
     <sheet name="Revenue1" sheetId="5" r:id="rId4"/>
     <sheet name="Revenue2" sheetId="7" r:id="rId5"/>
-    <sheet name="_Cost" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>Sum</t>
   </si>
@@ -109,9 +94,6 @@
     <t>Total Product Costs</t>
   </si>
   <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
     <t>Elite</t>
   </si>
   <si>
@@ -179,15 +161,6 @@
   </si>
   <si>
     <t>Indirect</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Amount</t>
   </si>
   <si>
     <t>Light</t>
@@ -215,9 +188,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -310,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -497,19 +467,6 @@
       <right style="dashDot">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="dashDot">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color indexed="64"/>
-      </left>
-      <right style="dashDot">
-        <color indexed="64"/>
-      </right>
       <top style="dashDot">
         <color indexed="64"/>
       </top>
@@ -654,14 +611,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,28 +628,28 @@
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,25 +670,22 @@
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,7 +700,7 @@
     <xf numFmtId="38" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,7 +718,7 @@
     <xf numFmtId="38" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -782,48 +733,44 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -833,16 +780,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -925,185 +863,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matthias Uckert" refreshedDate="45154.586307754631" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{4EEF7E43-86D6-49E0-AD9A-6B659BB6AF6E}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Type" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Direct"/>
-        <s v="Indirect"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Product" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Elite"/>
-        <s v="Premium"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Department" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Material"/>
-        <s v="Manufacturing"/>
-        <s v="Admin"/>
-        <s v="Marketing"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30000" maxValue="135000"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="30000"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="70000"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="40000"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="40000"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="50000"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="135000"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="73000"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="36500"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A59FD424-1E95-47F6-BA4B-13BBE6AF5FA2}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="F1:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D1291BB-0E64-4B81-B899-7221FFBECD72}" name="Table13" displayName="Table13" ref="A1:F10">
   <autoFilter ref="A1:F10" xr:uid="{23AD3082-7634-4ACA-A368-273135340960}"/>
@@ -1111,9 +870,9 @@
     <tableColumn id="1" xr3:uid="{C11ECAC7-F3C9-45FC-835E-6A5233C29D43}" name="Type" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{D3841463-4B67-41DA-84F3-5F1376F407FB}" name="Product"/>
     <tableColumn id="3" xr3:uid="{CCEA82D1-9EBC-4F06-B382-9BF9B3F604BA}" name="Department"/>
-    <tableColumn id="4" xr3:uid="{B557841B-4571-4893-BF18-C8EB959B389B}" name="Amount" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{62EC416F-5178-4F03-9481-78D2A933DBFB}" name="distr" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{04892204-63A6-4307-B7EE-5A24EB517E59}" name="range/std" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{B557841B-4571-4893-BF18-C8EB959B389B}" name="Amount" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{62EC416F-5178-4F03-9481-78D2A933DBFB}" name="distr" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{04892204-63A6-4307-B7EE-5A24EB517E59}" name="range/std" dataDxfId="19">
       <calculatedColumnFormula>Table13[[#This Row],[Amount]]*0.75</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1122,15 +881,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA1C422B-C31A-420E-94E5-540F142E31B8}" name="Table135" displayName="Table135" ref="A1:F12" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA1C422B-C31A-420E-94E5-540F142E31B8}" name="Table135" displayName="Table135" ref="A1:F11">
   <autoFilter ref="A1:F11" xr:uid="{23AD3082-7634-4ACA-A368-273135340960}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EFB934F3-6F45-4513-9348-45F384071C41}" name="Type" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F5239DBD-5375-4665-BD25-D3A0FCDF7908}" name="Product"/>
     <tableColumn id="3" xr3:uid="{F9AD0A01-1446-467E-8296-2FFBEAE79CB2}" name="Department"/>
-    <tableColumn id="4" xr3:uid="{19A3E7AD-6A49-4F2E-875E-C05C6A71682F}" name="Amount" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{03962760-4E6F-4A8A-88E9-0F342C758A17}" name="distr" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{3CCCDF6D-4966-4CA5-B13D-AB5C05FA1816}" name="range/std" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{19A3E7AD-6A49-4F2E-875E-C05C6A71682F}" name="Amount" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{03962760-4E6F-4A8A-88E9-0F342C758A17}" name="distr" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{3CCCDF6D-4966-4CA5-B13D-AB5C05FA1816}" name="range/std" dataDxfId="16">
       <calculatedColumnFormula>Table135[[#This Row],[Amount]]*0.75</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1143,13 +902,13 @@
   <autoFilter ref="A1:F3" xr:uid="{081B5FAD-2455-47E2-B937-A24FEF040D6E}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{FAFF63DA-2F8D-46E3-A896-2137A42D0C98}" name="Product" totalsRowLabel="Total"/>
-    <tableColumn id="3" xr3:uid="{1B3C1B8E-F0DC-4AB1-9842-9FC2683648E8}" name="Units" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{F3EA45AE-3317-4294-A8B3-23BE7ABAB0D3}" name="Price" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{CB1DD870-5018-4803-B80C-4D85FCFD1D5A}" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="3" xr3:uid="{1B3C1B8E-F0DC-4AB1-9842-9FC2683648E8}" name="Units" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F3EA45AE-3317-4294-A8B3-23BE7ABAB0D3}" name="Price" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{CB1DD870-5018-4803-B80C-4D85FCFD1D5A}" name="Amount" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Table134[[#This Row],[Units]]*Table134[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{491373E3-E123-4F9A-8A35-302BA0CC2D8A}" name="distr" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3A765A8A-FB3C-42C9-B1BF-EE7C9B5D6841}" name="range/std" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{491373E3-E123-4F9A-8A35-302BA0CC2D8A}" name="distr" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3A765A8A-FB3C-42C9-B1BF-EE7C9B5D6841}" name="range/std" dataDxfId="8">
       <calculatedColumnFormula>Table134[[#This Row],[Amount]]*0.95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1162,28 +921,15 @@
   <autoFilter ref="A1:F4" xr:uid="{081B5FAD-2455-47E2-B937-A24FEF040D6E}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{B5AB2350-4197-4031-B62F-8D696B4E740A}" name="Product" totalsRowLabel="Total"/>
-    <tableColumn id="3" xr3:uid="{2D1DC0CD-8229-4EF4-AB5A-B7C7148F9F1F}" name="Units" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{766DE175-5FF8-457B-95D3-937B42647861}" name="Price" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{7A6B25E9-1495-4988-AF86-24F9AE1CB4B9}" name="Amount" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{2D1DC0CD-8229-4EF4-AB5A-B7C7148F9F1F}" name="Units" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{766DE175-5FF8-457B-95D3-937B42647861}" name="Price" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7A6B25E9-1495-4988-AF86-24F9AE1CB4B9}" name="Amount" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>Table1346[[#This Row],[Units]]*Table1346[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{EE1279D5-777E-4137-AF36-1B25B7E653F2}" name="distr" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{162D9281-8684-4BC7-9073-627BC4B9C5F0}" name="range/std" dataDxfId="2">
       <calculatedColumnFormula>Table1346[[#This Row],[Amount]]*0.95</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0162A27D-42ED-4246-A0F6-9CBAA9D65876}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowCount="1">
-  <autoFilter ref="A1:D9" xr:uid="{23AD3082-7634-4ACA-A368-273135340960}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{111CAD66-8AED-4810-BE13-407B83F43422}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7AA6A01C-613C-4E18-BB30-E279E9EC98DA}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{7647F8E7-88E3-4DF2-8598-59F6CFFFDF76}" name="Department"/>
-    <tableColumn id="4" xr3:uid="{87029928-1DEF-4593-BC5C-10714C38A148}" name="Amount" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1486,208 +1232,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0422062C-FE01-4656-9DF6-F7B77C2B512B}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G25"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="8"/>
+    <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.83203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="47"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="54"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>35</v>
+      <c r="I2" s="31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="27"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="25"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <f t="shared" ref="B4:B5" si="0">SUM(C4:D4)</f>
         <v>70000</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>30000</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>40000</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="31">
+      <c r="E4" s="25"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="29">
         <v>500</v>
       </c>
-      <c r="H4" s="31">
-        <v>200</v>
-      </c>
-      <c r="I4" s="50">
+      <c r="H4" s="29">
+        <v>350</v>
+      </c>
+      <c r="I4" s="48">
         <f>G4*H4</f>
-        <v>100000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>70000</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <v>50000</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="31">
+      <c r="E5" s="25"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="29">
         <v>500</v>
       </c>
-      <c r="H5" s="31">
-        <v>500</v>
-      </c>
-      <c r="I5" s="50">
-        <v>250000</v>
+      <c r="H5" s="29">
+        <v>600</v>
+      </c>
+      <c r="I5" s="48">
+        <f>G5*H5</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <f>SUM(C6:F6)</f>
         <v>284500</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>40000</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <v>135000</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>73000</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="44">
         <v>36500</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>SUM(D9:E9)</f>
         <v>100000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f>C4</f>
         <v>30000</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>C5</f>
         <v>70000</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f t="shared" ref="C10:C17" si="1">SUM(D10:E10)</f>
         <v>40000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f>D9*$F$10</f>
         <v>12000</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>E9*F10</f>
         <v>28000</v>
       </c>
@@ -1695,71 +1442,71 @@
         <f>C6/SUM(C4:C5)</f>
         <v>0.4</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>D9+D10</f>
         <v>42000</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f>E9+E10</f>
         <v>98000</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>D4</f>
         <v>40000</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f>D5</f>
         <v>50000</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f t="shared" si="1"/>
         <v>135000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f>D12*$F$13</f>
         <v>60000</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f>E12*F13</f>
         <v>75000</v>
       </c>
@@ -1767,48 +1514,48 @@
         <f>D6/SUM(D4:D5)</f>
         <v>1.5</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>365000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f>D13+D12+D11</f>
         <v>142000</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f>E11+E12+E13</f>
         <v>223000</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="1"/>
         <v>73000</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f>D14*$F$15</f>
         <v>28400</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f>E14*$F$15</f>
         <v>44600</v>
       </c>
@@ -1816,25 +1563,25 @@
         <f>E6/SUM(D14:E14)</f>
         <v>0.2</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f t="shared" si="1"/>
         <v>36500</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f>D14*$F$16</f>
         <v>14200</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f>E14*$F$16</f>
         <v>22300</v>
       </c>
@@ -1842,278 +1589,260 @@
         <f>F6/SUM(D14:E14)</f>
         <v>0.1</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>474500</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f>D14+D15+D16</f>
         <v>184600</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f>E14+E15+E16</f>
         <v>289900</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="19" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="21">
-        <f>D17/G4</f>
-        <v>369.2</v>
-      </c>
-      <c r="E18" s="53">
-        <f>E17/G5</f>
-        <v>579.79999999999995</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>23</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <f>D20+E20</f>
+        <v>475000</v>
+      </c>
+      <c r="D20" s="3">
+        <f>I4</f>
+        <v>175000</v>
+      </c>
+      <c r="E20" s="3">
+        <f>I5</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4">
-        <f>D21+E21</f>
-        <v>350000</v>
-      </c>
-      <c r="D21" s="4">
-        <f>I4</f>
-        <v>100000</v>
-      </c>
-      <c r="E21" s="4">
-        <f>I5</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" ref="C22:C25" si="2">D22+E22</f>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:C24" si="2">D21+E21</f>
         <v>190000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D21" s="5">
         <f>D9+D12</f>
         <v>70000</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E21" s="5">
         <f>E9+E12</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="2"/>
+        <v>285000</v>
+      </c>
+      <c r="D22" s="4">
+        <f>D20-D21</f>
+        <v>105000</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E20-E21</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="2"/>
-        <v>160000</v>
+        <v>284500</v>
       </c>
       <c r="D23" s="5">
-        <f>D21-D22</f>
-        <v>30000</v>
-      </c>
-      <c r="E23" s="5">
-        <f>E21-E22</f>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="6">
-        <f t="shared" si="2"/>
-        <v>284500</v>
-      </c>
-      <c r="D24" s="6">
         <f>D10+D13+D15+D16</f>
         <v>114600</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E23" s="5">
         <f>E10+E13+E15+E16</f>
         <v>169900</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D24" s="4">
+        <f>D22-D23</f>
+        <v>-9600</v>
+      </c>
+      <c r="E24" s="4">
+        <f>E22-E23</f>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="2"/>
-        <v>-124500</v>
-      </c>
-      <c r="D25" s="5">
-        <f>D23-D24</f>
-        <v>-84600</v>
-      </c>
-      <c r="E25" s="5">
-        <f>E23-E24</f>
-        <v>-39900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6">
-        <v>30000</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5">
-        <f>C25-C26</f>
-        <v>-154500</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C26" s="4">
+        <f>C24-C25</f>
+        <v>-29500</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
+      <c r="A36" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2130,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A26BA-A192-41B8-95CD-5EDBD92C742C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2146,183 +1875,183 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="49">
         <v>30000</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="51">
+      <c r="E2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <v>70000</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="51">
+      <c r="E3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="49">
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>40000</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="51">
+      <c r="E4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>40000</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="51">
+      <c r="E5" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="49">
         <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>50000</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="49">
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>135000</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="51">
+      <c r="E7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="49">
         <v>25000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>73000</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="51">
+      <c r="E8" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="49">
         <v>7500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>36500</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="51">
+      <c r="E9" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="49">
         <v>3750</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="51">
+        <v>50</v>
+      </c>
+      <c r="D10" s="49">
         <v>30000</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="51">
+      <c r="E10" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="49">
         <f>Table13[[#This Row],[Amount]]*0.75</f>
         <v>22500</v>
       </c>
@@ -2338,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD6E59-D4D5-4CF6-BE24-52B2474838B1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2354,225 +2083,216 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="49">
         <v>30000</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="51">
+      <c r="E2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <v>70000</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="51">
+      <c r="E3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="49">
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>15000</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="51">
+      <c r="E4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="49">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>40000</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="51">
+      <c r="E5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>40000</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="49">
         <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>50000</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="51">
+      <c r="E7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="49">
         <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>30000</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="51">
+      <c r="E8" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="49">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>135000</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="51">
+      <c r="E9" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="49">
         <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>73000</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="51">
+      <c r="E10" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="49">
         <v>7500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>36500</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="51">
+      <c r="E11" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="49">
         <v>3750</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="51">
-        <f>SUBTOTAL(109,Table135[Amount])</f>
-        <v>519500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2588,7 +2308,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2602,64 +2322,64 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="51">
+        <v>21</v>
+      </c>
+      <c r="B2" s="49">
         <v>500</v>
       </c>
-      <c r="C2" s="51">
-        <v>500</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="C2" s="49">
+        <v>350</v>
+      </c>
+      <c r="D2" s="49">
         <f>Table134[[#This Row],[Units]]*Table134[[#This Row],[Price]]</f>
-        <v>250000</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="51">
+        <v>175000</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="49">
         <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="51">
-        <v>150</v>
-      </c>
-      <c r="C3" s="51">
-        <v>750</v>
-      </c>
-      <c r="D3" s="51">
+        <v>22</v>
+      </c>
+      <c r="B3" s="49">
+        <v>500</v>
+      </c>
+      <c r="C3" s="49">
+        <v>600</v>
+      </c>
+      <c r="D3" s="49">
         <f>Table134[[#This Row],[Units]]*Table134[[#This Row],[Price]]</f>
-        <v>112500</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="51">
-        <v>10000</v>
+        <v>300000</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="49">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -2674,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE3697-09E5-4FB1-9460-0F589699A2F8}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2689,85 +2409,85 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="51">
+        <v>21</v>
+      </c>
+      <c r="B2" s="49">
         <v>500</v>
       </c>
-      <c r="C2" s="51">
-        <v>500</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="C2" s="49">
+        <v>350</v>
+      </c>
+      <c r="D2" s="49">
         <f>Table1346[[#This Row],[Units]]*Table1346[[#This Row],[Price]]</f>
-        <v>250000</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="51">
+        <v>175000</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="49">
         <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="51">
-        <v>150</v>
-      </c>
-      <c r="C3" s="51">
-        <v>750</v>
-      </c>
-      <c r="D3" s="51">
+        <v>22</v>
+      </c>
+      <c r="B3" s="49">
+        <v>500</v>
+      </c>
+      <c r="C3" s="49">
+        <v>600</v>
+      </c>
+      <c r="D3" s="49">
         <f>Table1346[[#This Row],[Units]]*Table1346[[#This Row],[Price]]</f>
-        <v>112500</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="51">
-        <v>10000</v>
+        <v>300000</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="49">
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="51">
+        <v>44</v>
+      </c>
+      <c r="B4" s="49">
         <v>1000</v>
       </c>
-      <c r="C4" s="51">
-        <v>350</v>
-      </c>
-      <c r="D4" s="51">
+      <c r="C4" s="49">
+        <v>200</v>
+      </c>
+      <c r="D4" s="49">
         <f>Table1346[[#This Row],[Units]]*Table1346[[#This Row],[Price]]</f>
-        <v>350000</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="51">
-        <v>50000</v>
+        <v>200000</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="49">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -2776,256 +2496,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58D2DCA-F257-4447-A32C-565CF7FB7561}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="51">
-        <v>30000</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="51">
-        <v>70000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51">
-        <v>40000</v>
-      </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51">
-        <v>30000</v>
-      </c>
-      <c r="L3" s="51">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="51">
-        <v>40000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51">
-        <v>50000</v>
-      </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51">
-        <v>70000</v>
-      </c>
-      <c r="L4" s="51">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="51">
-        <v>40000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="51">
-        <v>73000</v>
-      </c>
-      <c r="I5" s="51">
-        <v>135000</v>
-      </c>
-      <c r="J5" s="51">
-        <v>36500</v>
-      </c>
-      <c r="K5" s="51">
-        <v>40000</v>
-      </c>
-      <c r="L5" s="51">
-        <v>284500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="51">
-        <v>50000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="51">
-        <v>73000</v>
-      </c>
-      <c r="I6" s="51">
-        <v>225000</v>
-      </c>
-      <c r="J6" s="51">
-        <v>36500</v>
-      </c>
-      <c r="K6" s="51">
-        <v>140000</v>
-      </c>
-      <c r="L6" s="51">
-        <v>474500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="51">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="51">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="51">
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="51">
-        <f>SUBTOTAL(109,Table1[Amount])</f>
-        <v>474500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="51"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
 </file>